--- a/NEW BUS ROUTE/Bus_Decisions_Data_Gathered.xlsx
+++ b/NEW BUS ROUTE/Bus_Decisions_Data_Gathered.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://monashuni-my.sharepoint.com/personal/msin0004_student_monash_edu/Documents/FYP/FYP-PROJECT/NEW BUS ROUTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_487117D4BE285F188746DE58024A4D878316745B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEEFA78-B77E-471D-83A8-C9A441278F1E}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_CD8C799B4A376B6D44D8DC47240434C160C7FA7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCD7BA9-4B7B-461E-AC5A-E00A18596F91}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="14550" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="12 Oct 2021 at 23.57.14" sheetId="2" r:id="rId2"/>
-    <sheet name="13 Oct 2021 at 00.03.24" sheetId="3" r:id="rId3"/>
-    <sheet name="13 Oct 2021 at 00.08.35" sheetId="4" r:id="rId4"/>
+    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="16 Oct 2021 at 20.19.06" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Data gathered from session with app</t>
   </si>
@@ -37,43 +35,75 @@
     <t>Passengers Onboard</t>
   </si>
   <si>
-    <t>2/64</t>
-  </si>
-  <si>
     <t>Seats Taken</t>
   </si>
   <si>
-    <t>2/38</t>
-  </si>
-  <si>
     <t>The following response was obtained from the app</t>
   </si>
   <si>
-    <t>Testing of excel sheet. Testing the code</t>
-  </si>
-  <si>
     <t>Bus 2</t>
   </si>
   <si>
-    <t>7/64</t>
-  </si>
-  <si>
-    <t>7/38</t>
-  </si>
-  <si>
     <t>Bus 3</t>
   </si>
   <si>
-    <t>Testing printing out code. Yay</t>
+    <t>Bus selected by the user</t>
+  </si>
+  <si>
+    <t>User reasoning behing the bus decision</t>
+  </si>
+  <si>
+    <t>Welcome to the database that stores information gathered from the 'Bus Stop &amp; Go' application in conjunction with the python-based server and SUMO simulation</t>
+  </si>
+  <si>
+    <t>This excel sheet will store each client session connected to the server and print all results into a new sheet. Each sheet is organised with the data and time of when the system is being run.</t>
+  </si>
+  <si>
+    <t>The formatting of each sheet title will consist of the following "DD MON YYYY at HH.MM.SS"</t>
+  </si>
+  <si>
+    <t>32/64</t>
+  </si>
+  <si>
+    <t>24/64</t>
+  </si>
+  <si>
+    <t>24/38</t>
+  </si>
+  <si>
+    <t>32/38</t>
+  </si>
+  <si>
+    <t>15/64</t>
+  </si>
+  <si>
+    <t>15/38</t>
+  </si>
+  <si>
+    <t>Bus stop that the user is at</t>
+  </si>
+  <si>
+    <t>Stop 5</t>
+  </si>
+  <si>
+    <t>Bus 2 is only 5 minutes after bus 1 and has a higher likelihood of having a seat available to sit on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,8 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,101 +418,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A6:AB6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,20 +629,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,45 +658,73 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NEW BUS ROUTE/Bus_Decisions_Data_Gathered.xlsx
+++ b/NEW BUS ROUTE/Bus_Decisions_Data_Gathered.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://monashuni-my.sharepoint.com/personal/msin0004_student_monash_edu/Documents/FYP/FYP-PROJECT/NEW BUS ROUTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_CD8C799B4A376B6D44D8DC47240434C160C7FA7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCD7BA9-4B7B-461E-AC5A-E00A18596F91}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_757843179B72B06B39083695F515E922208FD8D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D34420-BE96-437E-B102-0DFB146A391A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14550" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
-    <sheet name="16 Oct 2021 at 20.19.06" sheetId="5" r:id="rId2"/>
+    <sheet name="21 Oct 2021 at 13.59.05" sheetId="5" r:id="rId2"/>
+    <sheet name="21 Oct 2021 at 14.11.03" sheetId="6" r:id="rId3"/>
+    <sheet name="21 Oct 2021 at 14.33.03" sheetId="7" r:id="rId4"/>
+    <sheet name="23 Oct 2021 at 15.31.06" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+  <si>
+    <t>Welcome to the database that stores information gathered from the 'Bus Stop &amp; Go' application in conjunction with the python-based server and SUMO simulation</t>
+  </si>
+  <si>
+    <t>This excel sheet will store each client session connected to the server and print all results into a new sheet. Each sheet is organised with the data and time of when the system is being run.</t>
+  </si>
+  <si>
+    <t>The formatting of each sheet title will consist of the following "DD MON YYYY at HH.MM.SS"</t>
+  </si>
   <si>
     <t>Data gathered from session with app</t>
   </si>
@@ -38,13 +50,19 @@
     <t>Seats Taken</t>
   </si>
   <si>
+    <t>Bus 2</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
+  </si>
+  <si>
     <t>The following response was obtained from the app</t>
   </si>
   <si>
-    <t>Bus 2</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
+    <t>Bus stop that the user is at</t>
+  </si>
+  <si>
+    <t>Stop 5</t>
   </si>
   <si>
     <t>Bus selected by the user</t>
@@ -53,40 +71,76 @@
     <t>User reasoning behing the bus decision</t>
   </si>
   <si>
-    <t>Welcome to the database that stores information gathered from the 'Bus Stop &amp; Go' application in conjunction with the python-based server and SUMO simulation</t>
-  </si>
-  <si>
-    <t>This excel sheet will store each client session connected to the server and print all results into a new sheet. Each sheet is organised with the data and time of when the system is being run.</t>
-  </si>
-  <si>
-    <t>The formatting of each sheet title will consist of the following "DD MON YYYY at HH.MM.SS"</t>
-  </si>
-  <si>
-    <t>32/64</t>
-  </si>
-  <si>
-    <t>24/64</t>
-  </si>
-  <si>
-    <t>24/38</t>
-  </si>
-  <si>
-    <t>32/38</t>
-  </si>
-  <si>
-    <t>15/64</t>
-  </si>
-  <si>
-    <t>15/38</t>
-  </si>
-  <si>
-    <t>Bus stop that the user is at</t>
-  </si>
-  <si>
-    <t>Stop 5</t>
-  </si>
-  <si>
-    <t>Bus 2 is only 5 minutes after bus 1 and has a higher likelihood of having a seat available to sit on</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7/64</t>
+  </si>
+  <si>
+    <t>7/38</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9/64</t>
+  </si>
+  <si>
+    <t>9/38</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8/64</t>
+  </si>
+  <si>
+    <t>8/38</t>
+  </si>
+  <si>
+    <t>Bus 2 was the best option as the estimated time of arrival fit well with my schedule</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2/64</t>
+  </si>
+  <si>
+    <t>2/38</t>
+  </si>
+  <si>
+    <t>Stop 3</t>
+  </si>
+  <si>
+    <t>I picked bus 1 as it was the earliest to arrive at my stop.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5/64</t>
+  </si>
+  <si>
+    <t>5/38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Stop 7</t>
+  </si>
+  <si>
+    <t>Bus 3 is my choice as I have a relaxed day and am not in a rush</t>
+  </si>
+  <si>
+    <t>Stop 4</t>
+  </si>
+  <si>
+    <t>I am running late so bus 3 is the best option for me.</t>
   </si>
 </sst>
 </file>
@@ -130,13 +184,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,167 +482,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -589,16 +651,427 @@
     <mergeCell ref="A6:AB6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:D23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:D22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,126 +1081,136 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:D22"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>